--- a/data/06-12-2025-All_Services.xlsx
+++ b/data/06-12-2025-All_Services.xlsx
@@ -1,1034 +1,1498 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="All_Services" state="visible" r:id="rId4"/>
+    <sheet name="All_Services" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="333">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Node Name</t>
-  </si>
-  <si>
-    <t>Link Type Name</t>
-  </si>
-  <si>
-    <t>Bandwidth Allocated</t>
-  </si>
-  <si>
-    <t>Vlan</t>
-  </si>
-  <si>
-    <t>Lc Id</t>
-  </si>
-  <si>
-    <t>Unique Id</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Maintenance Area Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Created At</t>
-  </si>
-  <si>
-    <t>Updated At</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Node Id</t>
-  </si>
-  <si>
-    <t>Link Type Id</t>
-  </si>
-  <si>
-    <t>AAA - MAAN TL</t>
-  </si>
-  <si>
-    <t>ABANTIPUR</t>
-  </si>
-  <si>
-    <t>MAAN TL</t>
-  </si>
-  <si>
-    <t>Harinavi Transmission Maintenance</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>16553fc5-f3bd-4c5e-bb89-87534956c2ab</t>
-  </si>
-  <si>
-    <t>c56c403c-c441-49ff-bbdc-b6d36b364d0c</t>
-  </si>
-  <si>
-    <t>6bcd3b56-60af-4378-93b2-87c0aee6f0e6</t>
-  </si>
-  <si>
-    <t>KAMALGAZI</t>
-  </si>
-  <si>
-    <t>KAMALGAZI BTS</t>
-  </si>
-  <si>
-    <t>BTS 4G</t>
-  </si>
-  <si>
-    <t>1 GBps</t>
-  </si>
-  <si>
-    <t>3507</t>
-  </si>
-  <si>
-    <t>BSKOL09066</t>
-  </si>
-  <si>
-    <t>466892b4-91c7-4632-a3a7-4160d8fcff6d</t>
-  </si>
-  <si>
-    <t>abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
-  </si>
-  <si>
-    <t>ef21f735-94e1-448f-9b17-54f0145004e0</t>
-  </si>
-  <si>
-    <t>AAA - OLT</t>
-  </si>
-  <si>
-    <t>OLT</t>
-  </si>
-  <si>
-    <t>424f3614-1cc1-46b5-966a-18767584b052</t>
-  </si>
-  <si>
-    <t>b34e5c12-9557-4a9d-a901-6e2ab561dcc0</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BARUIPUR BAZAR BTS NODE 2_10.123.138.243/2.5-CTD_HNV_GOBINDAPUR_10.123.138.195/4.5</t>
-  </si>
-  <si>
-    <t>Baruipur station Bazar BTS</t>
-  </si>
-  <si>
-    <t>CPAN DL</t>
-  </si>
-  <si>
-    <t>3dc2813f-4af8-4961-934e-134c4ad14939</t>
-  </si>
-  <si>
-    <t>286ec15e-6eee-488e-9fd8-16b7fb859853</t>
-  </si>
-  <si>
-    <t>983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
-  </si>
-  <si>
-    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/5.1-CTD_HNV_BARUIPUR_10.123.138.196/3.1</t>
-  </si>
-  <si>
-    <t>BARUIPUR</t>
-  </si>
-  <si>
-    <t>10 GBps</t>
-  </si>
-  <si>
-    <t>2160bc28-e213-43ca-b12b-0f977b366e84</t>
-  </si>
-  <si>
-    <t>b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
-  </si>
-  <si>
-    <t>CTD_BHL_BARUIPUR-CENTRAL-CORRECTIONAL-HOME_10.123.136.22/2.5-CTD_HNV_GOBINDAPUR_10.123.138.195/5.2</t>
-  </si>
-  <si>
-    <t>BARUIPUR CORRECTIONAL HOME</t>
-  </si>
-  <si>
-    <t>08a0180e-1fb3-411c-a6dc-696693d5b28f</t>
-  </si>
-  <si>
-    <t>23759160-69e6-4377-9460-f634b644d723</t>
-  </si>
-  <si>
-    <t>PNB-SALEPUR_138.195/3.3_138.1/3.7</t>
-  </si>
-  <si>
-    <t>PNB SALEPUR</t>
-  </si>
-  <si>
-    <t>LEASED CKT</t>
-  </si>
-  <si>
-    <t>3012</t>
-  </si>
-  <si>
-    <t>1000183487</t>
-  </si>
-  <si>
-    <t>28d390c7-371d-4d6a-a12a-cdf14a697720</t>
-  </si>
-  <si>
-    <t>7b6234e0-1a08-4e0b-a890-20abbc65af79</t>
-  </si>
-  <si>
-    <t>3a549f97-6c19-409c-b136-3b670c9d0009</t>
-  </si>
-  <si>
-    <t>RBO SBI Baruipur Branch Padmapukur-14866_138.195/3.3_KGT-25.65/5.5</t>
-  </si>
-  <si>
-    <t>SBI RBO BARUIPUR</t>
-  </si>
-  <si>
-    <t>4055</t>
-  </si>
-  <si>
-    <t>1000120615</t>
-  </si>
-  <si>
-    <t>b7eed6ea-41cc-40e1-96d2-da2d9a11b14c</t>
-  </si>
-  <si>
-    <t>6c33d05d-2207-4bb8-b4a8-018503d78f21</t>
-  </si>
-  <si>
-    <t>CTD_HNV_RAMCHANDRAPUR_10.123.29.234/2.6-CTD_HNV_KAMALGAJI_10.123.29.196/3.6</t>
-  </si>
-  <si>
-    <t>RAMCHANDRAPUR BTS</t>
-  </si>
-  <si>
-    <t>79102ff7-a05e-4724-b348-994a65219741</t>
-  </si>
-  <si>
-    <t>528017c7-b844-4b84-81e4-c9fa425ca540</t>
-  </si>
-  <si>
-    <t>CTD_HNV_KAMALGAJI_10.123.29.196/3.7-CTD_HNV_KAMALGAZI EX A1_10.123.29.230/1.3</t>
-  </si>
-  <si>
-    <t>52a6701b-15bb-4052-8db4-09328c5f742f</t>
-  </si>
-  <si>
-    <t>CTD_HNV_KAMALGAJI_10.123.29.196/4.1-CTD_JDP_JADAVPUR_10.123.29.194/4.1</t>
-  </si>
-  <si>
-    <t>JADAVPUR</t>
-  </si>
-  <si>
-    <t>Jadavpur Transmission Terminal</t>
-  </si>
-  <si>
-    <t>df187f28-5dfa-4274-a6ac-c72e0b506212</t>
-  </si>
-  <si>
-    <t>41355205-b6db-4d38-bebf-9f0cf2998f64</t>
-  </si>
-  <si>
-    <t>CTD_JDP_NARENDRAPUR II_10.123.29.229/1.6-CTD_HNV_KAMALGAJI_10.123.29.196/4.2</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR-II BTS</t>
-  </si>
-  <si>
-    <t>223b6062-1585-4360-b472-fbcd92090c9b</t>
-  </si>
-  <si>
-    <t>5fc898f6-95f7-42b2-ae15-4cb4bbc7b1cb</t>
-  </si>
-  <si>
-    <t>SBI-RACPC_138.194/4.3_138.65/3.8</t>
-  </si>
-  <si>
-    <t>KMG SBI RACPC</t>
-  </si>
-  <si>
-    <t>3867</t>
-  </si>
-  <si>
-    <t>1000072296</t>
-  </si>
-  <si>
-    <t>5a8f65e3-0603-4f2d-8e18-d0cd075c1d15</t>
-  </si>
-  <si>
-    <t>35498659-15e9-4ba9-9d36-351ba67661bf</t>
-  </si>
-  <si>
-    <t>ADSR-GARIA_138.194/4.3_KGT-25.65/5.5</t>
-  </si>
-  <si>
-    <t>ADSR GARIA</t>
-  </si>
-  <si>
-    <t>4053</t>
-  </si>
-  <si>
-    <t>1000293303</t>
-  </si>
-  <si>
-    <t>8254a0ee-edac-420e-86ce-073484c8a8ac</t>
-  </si>
-  <si>
-    <t>7cbf2d21-512a-4db7-b066-5d65400993c7</t>
-  </si>
-  <si>
-    <t>CTD_HNV_SHERWOOD ROU_10.123.138.231/2.5-CTD_HNV_KAMALGAJI_10.123.29.196/4.4</t>
-  </si>
-  <si>
-    <t>SHERWOOD</t>
-  </si>
-  <si>
-    <t>e0ca2ca9-0f36-4c40-8629-14f74fee53f1</t>
-  </si>
-  <si>
-    <t>859ee42c-40de-4e16-ac9b-084075953311</t>
-  </si>
-  <si>
-    <t>CTD_HNV_SUNNY SEASON ROU A1 NODE 2_10.123.29.224/1.5-CTD_HNV_KAMALGAJI_10.123.29.196/4.5</t>
-  </si>
-  <si>
-    <t>SUNNY SEASON</t>
-  </si>
-  <si>
-    <t>4a96067c-99e9-4264-92b5-f69a5369a5d9</t>
-  </si>
-  <si>
-    <t>0f0b317e-1ab7-4e5c-8997-7024be4f5d70</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BORAL ROU A1_10.123.29.225/1.6-CTD_HNV_KAMALGAJI_10.123.29.196/4.6</t>
-  </si>
-  <si>
-    <t>BORAL</t>
-  </si>
-  <si>
-    <t>3143ee2f-486c-4fef-8f0d-51221b25566b</t>
-  </si>
-  <si>
-    <t>4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
-  </si>
-  <si>
-    <t>CTD_HNV_SONARPUR_10.123.138.199/4.1-CTD_HNV_KAMALGAJI_10.123.29.196/5.1</t>
-  </si>
-  <si>
-    <t>SONARPUR</t>
-  </si>
-  <si>
-    <t>99463f70-75e6-4a9c-8cf9-0f365ffc114e</t>
-  </si>
-  <si>
-    <t>4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HHC ROU_10.123.138.46/2.6-CTD_HNV_KAMALGAJI_10.123.29.196/5.3</t>
-  </si>
-  <si>
-    <t>HHC</t>
-  </si>
-  <si>
-    <t>9146c119-ee50-4811-ae77-cdd48f392508</t>
-  </si>
-  <si>
-    <t>781a30c9-f5db-4af4-ac1d-f279ad2eff80</t>
-  </si>
-  <si>
-    <t>CTD_HNV_KAMALGAJI_10.123.29.196/5.4-CTD_HNV_NARENDRAPUR KRISHNA_10.123.138.213/2.5</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR 1 (KRISHNA APPT) BTS</t>
-  </si>
-  <si>
-    <t>81978225-61fb-45f5-bec4-20a739fef742</t>
-  </si>
-  <si>
-    <t>41e45185-102e-408f-86b0-285c8b2a411f</t>
-  </si>
-  <si>
-    <t>KAMALGAJI_10.123.29.196/5.7==Kamalgazi BTS-A3(CAT2) /1/ETH-1-1-17</t>
-  </si>
-  <si>
-    <t>CPAN MAAN Link</t>
-  </si>
-  <si>
-    <t>737be58d-7bde-41a7-9002-2ffb83e5a8ec</t>
-  </si>
-  <si>
-    <t>bad8fb63-8d85-4ea3-ba41-7151076cd0ef</t>
-  </si>
-  <si>
-    <t>KAMALGAJI_10.123.29.196/5.8==Kamalgazi BTS-A3(CAT2) /1/ETH-1-1-18</t>
-  </si>
-  <si>
-    <t>70188d37-baf2-43dc-b857-8cff90f0c8fd</t>
-  </si>
-  <si>
-    <t>CTD_HNV_FIEM-ROU-A1_10.123.138.228/2.6-CTD_HNV_KAMALGAJI_10.123.29.196/6.4</t>
-  </si>
-  <si>
-    <t>FUTURE INSTITUTE OF ENGG AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>1f90f744-3885-4ca6-9fe4-738f8fc819c7</t>
-  </si>
-  <si>
-    <t>8ad723eb-6da3-4475-8ffb-3afde808fe07</t>
-  </si>
-  <si>
-    <t>MAHAMAYATALA-II 2G</t>
-  </si>
-  <si>
-    <t>MAHAMAYATALA II BTS</t>
-  </si>
-  <si>
-    <t>BTS 2G</t>
-  </si>
-  <si>
-    <t>1728</t>
-  </si>
-  <si>
-    <t>Z2GJDPIPJDP2485</t>
-  </si>
-  <si>
-    <t>a93b0eee-0939-4fcc-acec-355df1c810dc</t>
-  </si>
-  <si>
-    <t>6cb1a150-a017-4e2f-9018-f0482be79bdb</t>
-  </si>
-  <si>
-    <t>30b95289-bc6c-4584-a51d-800e3b6356c9</t>
-  </si>
-  <si>
-    <t>MAHAMAYATALA-II 3G</t>
-  </si>
-  <si>
-    <t>BTS 3G</t>
-  </si>
-  <si>
-    <t>1928</t>
-  </si>
-  <si>
-    <t>Z3GJDPIPJDP5485</t>
-  </si>
-  <si>
-    <t>cda7ba08-7f34-4f8d-8ee8-66cedadeeab3</t>
-  </si>
-  <si>
-    <t>35b215a3-75cc-4a95-859f-85a5414fcced</t>
-  </si>
-  <si>
-    <t>HNV CSR_MEDHA INTRANET_138.193/4.9_25.189/2.3</t>
-  </si>
-  <si>
-    <t>HNV PCM 1ST FLOOR</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>1000504431</t>
-  </si>
-  <si>
-    <t>2749dbd2-2aa2-4258-9ee3-c3d2bce17d45</t>
-  </si>
-  <si>
-    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
-  </si>
-  <si>
-    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/3.1-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.1</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR</t>
-  </si>
-  <si>
-    <t>066dc680-98c6-4b7a-82b6-06a47be03c82</t>
-  </si>
-  <si>
-    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.2-CTD_HNV_BARUI PUR RAIL CROSSING BTS_10.123.138.216/1.5</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING BTS</t>
-  </si>
-  <si>
-    <t>7cb54fc6-2864-4c9e-8680-e8c2282e17aa</t>
-  </si>
-  <si>
-    <t>25fefca1-ae6f-4e01-8051-087a94373b9d</t>
-  </si>
-  <si>
-    <t>KHODAR BAZAR</t>
-  </si>
-  <si>
-    <t>KHODAR_BAZAR BTS</t>
-  </si>
-  <si>
-    <t>37ace94a-52d7-4cc0-85ab-10b1abe2f7bb</t>
-  </si>
-  <si>
-    <t>9ce5929c-3cb3-401f-abe5-7bd9e73db778</t>
-  </si>
-  <si>
-    <t>HARINAVI_10.123.138.193_GNE/6.3==Harinavi -B3(CAT2) /1/ETH-1-1-3</t>
-  </si>
-  <si>
-    <t>72aaabd1-57b2-49b7-8734-b22b51443ed8</t>
-  </si>
-  <si>
-    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/4.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.4</t>
-  </si>
-  <si>
-    <t>eff705a3-7dff-41b4-8764-28b1c34b26f3</t>
-  </si>
-  <si>
-    <t>CTD_JDP_AWANTIPUR_10.123.138.200/3.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.5</t>
-  </si>
-  <si>
-    <t>285294ec-5ea4-4535-8f99-d744acb6a1eb</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/2.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.7</t>
-  </si>
-  <si>
-    <t>25459ef3-6fbb-49ec-aeac-7cb8de958b46</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI EXCH NODE-2_10.123.138.245/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.8</t>
-  </si>
-  <si>
-    <t>b9c7aac2-67d1-480b-ae3f-e4f5eabd4697</t>
-  </si>
-  <si>
-    <t>WBSEDCL-PADMAPUKUR_138.193/3.3_138.65/3.8</t>
-  </si>
-  <si>
-    <t>PADMAPUKUR</t>
-  </si>
-  <si>
-    <t>3864</t>
-  </si>
-  <si>
-    <t>1000209540</t>
-  </si>
-  <si>
-    <t>8091468c-7979-46e7-8ff7-31468b94f5f5</t>
-  </si>
-  <si>
-    <t>b23799ac-04a7-4a2c-a6ce-2676971cbc2f</t>
-  </si>
-  <si>
-    <t>IG-BORDER-4MBPS_CIR-25.138/3.3_HARINAVI-138.193/3.3</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>1000354024</t>
-  </si>
-  <si>
-    <t>6a6102be-1442-482e-8779-78ff7d54f636</t>
-  </si>
-  <si>
-    <t>BARUIPUR_POLYTECH_138.129/3.3_138.129/3.3</t>
-  </si>
-  <si>
-    <t>BARUIPUR POLYTECHNIC</t>
-  </si>
-  <si>
-    <t>3723</t>
-  </si>
-  <si>
-    <t>1000540738</t>
-  </si>
-  <si>
-    <t>aaaf44d4-c7d0-457d-aeb3-6c9c1e002994</t>
-  </si>
-  <si>
-    <t>5538422e-4955-4ae3-8e58-7e4e801aaeac</t>
-  </si>
-  <si>
-    <t>WBSWAN POP BLOCK HEAD QUARTER BLOCK OFFICE SONARPUR</t>
-  </si>
-  <si>
-    <t>Sonarpur Bhq</t>
-  </si>
-  <si>
-    <t>3832</t>
-  </si>
-  <si>
-    <t>1000293191</t>
-  </si>
-  <si>
-    <t>499ed28b-7dff-4af4-a059-3e1169065627</t>
-  </si>
-  <si>
-    <t>b2dba624-533d-48c2-ac79-6df541ab8054</t>
-  </si>
-  <si>
-    <t>SBI_RAJPUR</t>
-  </si>
-  <si>
-    <t>SBI RAJPUR</t>
-  </si>
-  <si>
-    <t>4041</t>
-  </si>
-  <si>
-    <t>1000122720</t>
-  </si>
-  <si>
-    <t>ed39a4f5-8b3a-4bc9-afc2-e56056cf4754</t>
-  </si>
-  <si>
-    <t>2509ca5a-bb63-42ab-a9e6-10b21cdbf344</t>
-  </si>
-  <si>
-    <t>SONARPUR_BLRO_138.193/3.3_138.65/3.8</t>
-  </si>
-  <si>
-    <t>3824</t>
-  </si>
-  <si>
-    <t>1000293414</t>
-  </si>
-  <si>
-    <t>8411e68d-3a48-4f3a-8fed-015d228cc59b</t>
-  </si>
-  <si>
-    <t>SBI_SUBHASGRAM_138.193/3.3_25.65/5.5</t>
-  </si>
-  <si>
-    <t>SBI SUBHASGRAM</t>
-  </si>
-  <si>
-    <t>4031</t>
-  </si>
-  <si>
-    <t>1000123043</t>
-  </si>
-  <si>
-    <t>314bff74-a98e-4d5f-90ad-d69373c019ad</t>
-  </si>
-  <si>
-    <t>53f28861-be94-4f78-a6da-abd2afd6e7fa</t>
-  </si>
-  <si>
-    <t>SONARPU_ADSR_138.193_138.65</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>1000293306</t>
-  </si>
-  <si>
-    <t>4324a99b-04a0-4f3b-9c36-87b077005b93</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.6-CTD_HNV_RAJPUR SARKARPARA_10.123.138.215/2.5</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKAR PARA BTS</t>
-  </si>
-  <si>
-    <t>61b21eeb-02d0-4660-b49e-72baff24942b</t>
-  </si>
-  <si>
-    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI EXCH A1_10.123.138.225/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.7</t>
-  </si>
-  <si>
-    <t>3742b931-11f4-48d9-a0a4-9d8a286c3158</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HNV Tx A1_10.123.138.233/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.8</t>
-  </si>
-  <si>
-    <t>8f396188-2134-4ac1-9473-d9077a04e2a9</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.9-CTD_HNV_HARINAVI EXCH_10.123.138.229/1.3</t>
-  </si>
-  <si>
-    <t>e2225287-b468-4729-9a04-e97a57252421</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/3.11-CTD_HNV_HARINAVI EXCH NODE 7_10.123.138.253/1.3</t>
-  </si>
-  <si>
-    <t>8863f470-b8bb-4ecd-913d-5be3da939d8b</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/4.1-CTD_HNV_KAMALGAJI_10.123.29.196/3.1</t>
-  </si>
-  <si>
-    <t>bb93ae6d-d10c-45ca-ab18-7b68613c8790</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/4.2-CTD_HNV_KODALIA BTS_10.123.138.204/1.5</t>
-  </si>
-  <si>
-    <t>KODALIA BTS</t>
-  </si>
-  <si>
-    <t>76563bda-cbd4-47c9-b81b-bbf8021d6329</t>
-  </si>
-  <si>
-    <t>e56848ea-3c3a-4925-b20c-bc5ca60bec5b</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/4.3-CTD_HNV_SHALIMAR CHEMICAL_10.123.138.214/1.5</t>
-  </si>
-  <si>
-    <t>SHALIMAR CHEMICAL BTS</t>
-  </si>
-  <si>
-    <t>bf787ef1-10ca-4f22-a1f1-e51ca3bd3fa0</t>
-  </si>
-  <si>
-    <t>b1ba7120-8b78-4897-b040-faa5e5620c96</t>
-  </si>
-  <si>
-    <t>CTD_HNV_DAKSHIN CHOWHATI_10.123.138.209/1.5-CTD_HNV_HARINAVI_10.123.138.193_GNE/4.4</t>
-  </si>
-  <si>
-    <t>MALANCHA_CHANDPUR BTS</t>
-  </si>
-  <si>
-    <t>39497abc-c45b-4eef-99ae-b9792eb79fc0</t>
-  </si>
-  <si>
-    <t>93d9b329-2382-443a-949d-ba8225db474c</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/4.7-CTD_HNV_HARINAVI EXCH NODE-6_10.123.138.244/1.3</t>
-  </si>
-  <si>
-    <t>a55a2257-f3a9-4ad9-9901-daf63a8f34ef</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI EXCH NODE-6_10.123.138.244/2.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/4.8</t>
-  </si>
-  <si>
-    <t>ba7ce1f6-49fe-4834-b249-4262e54bb3b8</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI EXCH NODE 7_10.123.138.253/2.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/4.10</t>
-  </si>
-  <si>
-    <t>44d8ce8b-be5d-4521-a979-a6b10c57dd9f</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/4.11-CTD_HNV_HARINAVI EXCH NODE-2_10.123.138.245/2.3</t>
-  </si>
-  <si>
-    <t>31cd7d67-b9b2-4ca7-a600-d00d6f87c807</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HARINAVI_10.123.138.193_GNE/5.1-CTD_HNV_ BRAHMAPUR_10.123.138.203/3.1</t>
-  </si>
-  <si>
-    <t>BRAHMAPUR</t>
-  </si>
-  <si>
-    <t>a679bacf-dfef-4916-a751-e73e1bcfbe7e</t>
-  </si>
-  <si>
-    <t>6c3d8bf8-006a-4230-8efe-c5343b7ac9c1</t>
-  </si>
-  <si>
-    <t>CTD_HNV_HNV TX A1_10.123.138.217/1.5-CTD_HNV_HARINAVI_10.123.138.193_GNE/5.2</t>
-  </si>
-  <si>
-    <t>a8d9357f-ad55-42c3-8758-5ec087dcda53</t>
-  </si>
-  <si>
-    <t>CTD_HNV_SONARPUR_10.123.138.199/3.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/5.4</t>
-  </si>
-  <si>
-    <t>f87cd2eb-facf-4b5c-909a-5f702bb0ce9d</t>
-  </si>
-  <si>
-    <t>HARINAVI_10.123.138.193_GNE/5.7==Harinavi -B3(CAT2) /1/ETH-1-1-17</t>
-  </si>
-  <si>
-    <t>2c969cd2-f4e2-47e5-8a13-9f58b69256d5</t>
-  </si>
-  <si>
-    <t>HARINAVI_10.123.138.193_GNE/5.8==Harinavi -B3(CAT2) /1/ETH-1-1-18</t>
-  </si>
-  <si>
-    <t>017ffc52-21bb-4e00-ab8b-195a104daab9</t>
-  </si>
-  <si>
-    <t>HARINAVI_10.123.138.193_GNE/5.9==Harinavi -B3(CAT2) /1/ETH-1-1-19</t>
-  </si>
-  <si>
-    <t>ddea7279-bfa0-4887-a6db-352f75e927b1</t>
-  </si>
-  <si>
-    <t>HARINAVI_10.123.138.193_GNE/5.10==Harinavi -B3(CAT2) /1/ETH-1-1-20</t>
-  </si>
-  <si>
-    <t>a531a258-5d75-49a3-aec6-b68a1e95f62a</t>
-  </si>
-  <si>
-    <t>CTD_HNV_AP NAGAR_10.123.138.198/4.1-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.1</t>
-  </si>
-  <si>
-    <t>AP NAGAR</t>
-  </si>
-  <si>
-    <t>bc9f8bc4-5379-4c91-8f48-a46bd11710f2</t>
-  </si>
-  <si>
-    <t>54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
-  </si>
-  <si>
-    <t>HARINAVI_10.123.138.193_GNE/6.2==Harinavi -B3(CAT2) /1/ETH-1-1-1</t>
-  </si>
-  <si>
-    <t>4fb936ab-5a52-4171-8c1d-27dfba6c0d98</t>
-  </si>
-  <si>
-    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/3.2-CTD_HNV_JOGIBARTALA BTS_10.123.138.208/2.5</t>
-  </si>
-  <si>
-    <t>JOGIBARTALA BTS</t>
-  </si>
-  <si>
-    <t>9d97e1e8-6942-4fba-8922-544a168d0db1</t>
-  </si>
-  <si>
-    <t>dea33be8-45f3-4823-9366-654f63ba67f2</t>
-  </si>
-  <si>
-    <t>CTD_HNV_GOBINDAPUR_10.123.138.195/4.1-CTD_BHL_JULPIA_10.123.136.3/4.1</t>
-  </si>
-  <si>
-    <t>JULPIA</t>
-  </si>
-  <si>
-    <t>Behala Transmission Maintenance</t>
-  </si>
-  <si>
-    <t>069dae02-dd0d-4f98-aac9-4e71d19cc964</t>
-  </si>
-  <si>
-    <t>f9ff6e66-4926-4fda-a275-9671f294e925</t>
-  </si>
-  <si>
-    <t>2e6682a2-2bf4-4db1-84b7-bf453707e8a2</t>
-  </si>
-  <si>
-    <t>1000293230_WBSWAN_SDO(CIVIL)BRP_3702</t>
-  </si>
-  <si>
-    <t>BARUIPUR SDO OFFICE</t>
-  </si>
-  <si>
-    <t>f2a668f8-520d-44f2-a12e-61748fddea03</t>
-  </si>
-  <si>
-    <t>d21ea89a-7681-4e53-b10c-5da3c82d31fe</t>
-  </si>
-  <si>
-    <t>1000120482_SBI_BARUIPUR_138.196/3.5_138.65/3.8_3865</t>
-  </si>
-  <si>
-    <t>SBI BARUIPUR</t>
-  </si>
-  <si>
-    <t>57c1a846-c1f0-43db-a27e-40f54387105a</t>
-  </si>
-  <si>
-    <t>a72f165a-4e0f-44a3-934e-f68940e00471</t>
-  </si>
-  <si>
-    <t>1000122714_SBI_BARUIPUR_BZR_138.196/3.5_25.65/5.5_4030</t>
-  </si>
-  <si>
-    <t>SBI BARUIPUR BAZAR</t>
-  </si>
-  <si>
-    <t>5eaae8e4-a441-4e23-955e-046cbacb3e63</t>
-  </si>
-  <si>
-    <t>15db953c-c9fa-4044-b1bc-1c0a0d59645b</t>
-  </si>
-  <si>
-    <t>1000537505_CSR_BARUIPUR_138.199/3.5_141.173/1.4_413</t>
-  </si>
-  <si>
-    <t>0796b1a9-576f-4b0c-a3f1-17cae80137c7</t>
-  </si>
-  <si>
-    <t>Baruipur(Nirala Road)</t>
-  </si>
-  <si>
-    <t>Baruipur (Nirala Road) BTS</t>
-  </si>
-  <si>
-    <t>1472cfbe-9558-43fb-a433-c52e16167225</t>
-  </si>
-  <si>
-    <t>48f0b92e-bd96-4ae6-bc13-6a94ecc754c5</t>
-  </si>
-  <si>
-    <t>BARUIPUR MADARHAT ROAD</t>
-  </si>
-  <si>
-    <t>597f0a21-84b5-4245-be59-19a7f8aa2830</t>
-  </si>
-  <si>
-    <t>bc89c2b7-7450-415a-b126-8d11edc52d34</t>
-  </si>
-  <si>
-    <t>a6e02a4a-a552-469b-a554-9cb4c957dfe0</t>
-  </si>
-  <si>
-    <t>PIYALI TOWN I</t>
-  </si>
-  <si>
-    <t>PIYALI TOWN I BTS</t>
-  </si>
-  <si>
-    <t>391dd04c-94bd-4b6d-8c41-51230ae37bd1</t>
-  </si>
-  <si>
-    <t>5be02f7d-d7e7-403c-bf98-535c120b7c05</t>
-  </si>
-  <si>
-    <t>1ec015c9-e787-4ad3-a0d3-6363cd5f89a5</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BARUIPUR EXNG A1_10.123.138.220/1.3-CTD_HNV_BARUIPUR_10.123.138.196/3.7</t>
-  </si>
-  <si>
-    <t>f09c961c-79ae-46eb-bcf3-8970d6ebee35</t>
-  </si>
-  <si>
-    <t>BARUIPUR DUTTAPARA</t>
-  </si>
-  <si>
-    <t>BARUIPUR DUTTAPARA BTS</t>
-  </si>
-  <si>
-    <t>4bfbaaa9-11ea-4895-a9c4-02349eda7c63</t>
-  </si>
-  <si>
-    <t>8f06599e-fe3e-4717-b0ea-4fa6ccdb8ea6</t>
-  </si>
-  <si>
-    <t>BARUIPUR_10.123.138.196/3.9==Baruipur -B3(CAT2) /1/ETH-1-1-17</t>
-  </si>
-  <si>
-    <t>345b853a-1d3b-4f5a-b41c-1df6d09d8e74</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BARUIPUR NODE 4_10.123.138.241/1.4-CTD_HNV_BARUIPUR_10.123.138.196/3.10</t>
-  </si>
-  <si>
-    <t>992a9997-7404-45ba-aad5-1f43c6643bf5</t>
-  </si>
-  <si>
-    <t>CTD_HNV_SITAKUNDU_10.123.138.197/3.1-CTD_HNV_BARUIPUR_10.123.138.196/4.1</t>
-  </si>
-  <si>
-    <t>SITAKUNDU</t>
-  </si>
-  <si>
-    <t>2f9be95a-3bce-456e-89f4-bee5d8f296ae</t>
-  </si>
-  <si>
-    <t>69b3cd60-ce89-43b4-ac1f-4671fc02d081</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BARUIPUR_10.123.138.196/4.2-CTD_HNV_BARUIPUR BAZAR BTS NODE 1_10.123.138.242/1.5</t>
-  </si>
-  <si>
-    <t>3e1bac51-dc6c-4369-9467-d7a9b3a1fdc0</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BARUIPUR_10.123.138.196/4.3-CTD_HNV_PIYALI TOWN II BTS (A1)_10.123.138.247/1.5</t>
-  </si>
-  <si>
-    <t>PIYALI TOWN II BTS</t>
-  </si>
-  <si>
-    <t>631e0ac8-2096-46d0-b03f-29a0df673fa6</t>
-  </si>
-  <si>
-    <t>5ff68e3d-96c7-41b7-a27e-53823346640a</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BARUIPUR_10.123.138.196/4.5-CTD_HNV_BARUIPUR III BTS_10.123.138.211/1.5</t>
-  </si>
-  <si>
-    <t>BARUIPUR III BTS</t>
-  </si>
-  <si>
-    <t>71e4a9f2-97fe-4e24-94df-ef5b329044cb</t>
-  </si>
-  <si>
-    <t>876847d1-9e49-4c81-9716-c3b188826ce1</t>
-  </si>
-  <si>
-    <t>CTD_HNV_BARUIPUR_10.123.138.196/4.9-CTD_HNV_BARUIPUR NODE 4_10.123.138.241/2.4</t>
-  </si>
-  <si>
-    <t>55a43ec5-8db4-4762-8bd2-d6174e9c02d5</t>
-  </si>
-  <si>
-    <t>BARUIPUR_10.123.138.196/4.10==Baruipur -B3(CAT2) /1/ETH-1-1-18</t>
-  </si>
-  <si>
-    <t>c9005fcd-ea6f-4a2d-9369-f4457e87fa66</t>
-  </si>
-  <si>
-    <t>BARUIPUR_10.123.138.196/4.11==Baruipur -B3(CAT2) /1/ETH-1-1-19</t>
-  </si>
-  <si>
-    <t>8a290a6f-3d8a-4070-b41a-0b7d33051a67</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="478">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandwidth Allocated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lc Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance Area Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link Type Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA - MAAN TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABANTIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAN TL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harinavi Transmission Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16553fc5-f3bd-4c5e-bb89-87534956c2ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c56c403c-c441-49ff-bbdc-b6d36b364d0c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6bcd3b56-60af-4378-93b2-87c0aee6f0e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAZI BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GBps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSKOL09066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">466892b4-91c7-4632-a3a7-4160d8fcff6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ef21f735-94e1-448f-9b17-54f0145004e0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA - OLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424f3614-1cc1-46b5-966a-18767584b052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b34e5c12-9557-4a9d-a901-6e2ab561dcc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR BAZAR BTS NODE 2_10.123.138.243/2.5-CTD_HNV_GOBINDAPUR_10.123.138.195/4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur station Bazar BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3dc2813f-4af8-4961-934e-134c4ad14939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286ec15e-6eee-488e-9fd8-16b7fb859853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983fd25b-20e8-4aee-9cf9-7e286b7813da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GOBINDAPUR_10.123.138.195/5.1-CTD_HNV_BARUIPUR_10.123.138.196/3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 GBps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2160bc28-e213-43ca-b12b-0f977b366e84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_BHL_BARUIPUR-CENTRAL-CORRECTIONAL-HOME_10.123.136.22/2.5-CTD_HNV_GOBINDAPUR_10.123.138.195/5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR CORRECTIONAL HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08a0180e-1fb3-411c-a6dc-696693d5b28f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23759160-69e6-4377-9460-f634b644d723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNB-SALEPUR_138.195/3.3_138.1/3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNB SALEPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEASED CKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000183487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28d390c7-371d-4d6a-a12a-cdf14a697720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b6234e0-1a08-4e0b-a890-20abbc65af79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a549f97-6c19-409c-b136-3b670c9d0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBO SBI Baruipur Branch Padmapukur-14866_138.195/3.3_KGT-25.65/5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI RBO BARUIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000120615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b7eed6ea-41cc-40e1-96d2-da2d9a11b14c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c33d05d-2207-4bb8-b4a8-018503d78f21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_RAMCHANDRAPUR_10.123.29.234/2.6-CTD_HNV_KAMALGAJI_10.123.29.196/3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCHANDRAPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79102ff7-a05e-4724-b348-994a65219741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528017c7-b844-4b84-81e4-c9fa425ca540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_KAMALGAJI_10.123.29.196/3.7-CTD_HNV_KAMALGAZI EX A1_10.123.29.230/1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52a6701b-15bb-4052-8db4-09328c5f742f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_KAMALGAJI_10.123.29.196/4.1-CTD_JDP_JADAVPUR_10.123.29.194/4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADAVPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadavpur Transmission Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df187f28-5dfa-4274-a6ac-c72e0b506212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41355205-b6db-4d38-bebf-9f0cf2998f64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_JDP_NARENDRAPUR II_10.123.29.229/1.6-CTD_HNV_KAMALGAJI_10.123.29.196/4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR-II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223b6062-1585-4360-b472-fbcd92090c9b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5fc898f6-95f7-42b2-ae15-4cb4bbc7b1cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI-RACPC_138.194/4.3_138.65/3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMG SBI RACPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000072296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a8f65e3-0603-4f2d-8e18-d0cd075c1d15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35498659-15e9-4ba9-9d36-351ba67661bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADSR-GARIA_138.194/4.3_KGT-25.65/5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADSR GARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000293303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8254a0ee-edac-420e-86ce-073484c8a8ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7cbf2d21-512a-4db7-b066-5d65400993c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SHERWOOD ROU_10.123.138.231/2.5-CTD_HNV_KAMALGAJI_10.123.29.196/4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHERWOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0ca2ca9-0f36-4c40-8629-14f74fee53f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859ee42c-40de-4e16-ac9b-084075953311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SUNNY SEASON ROU A1 NODE 2_10.123.29.224/1.5-CTD_HNV_KAMALGAJI_10.123.29.196/4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNNY SEASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a96067c-99e9-4264-92b5-f69a5369a5d9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f0b317e-1ab7-4e5c-8997-7024be4f5d70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BORAL ROU A1_10.123.29.225/1.6-CTD_HNV_KAMALGAJI_10.123.29.196/4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3143ee2f-486c-4fef-8f0d-51221b25566b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SONARPUR_10.123.138.199/4.1-CTD_HNV_KAMALGAJI_10.123.29.196/5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99463f70-75e6-4a9c-8cf9-0f365ffc114e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HHC ROU_10.123.138.46/2.6-CTD_HNV_KAMALGAJI_10.123.29.196/5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9146c119-ee50-4811-ae77-cdd48f392508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">781a30c9-f5db-4af4-ac1d-f279ad2eff80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_KAMALGAJI_10.123.29.196/5.4-CTD_HNV_NARENDRAPUR KRISHNA_10.123.138.213/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARENDRAPUR 1 (KRISHNA APPT) BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81978225-61fb-45f5-bec4-20a739fef742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41e45185-102e-408f-86b0-285c8b2a411f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAJI_10.123.29.196/5.7==Kamalgazi BTS-A3(CAT2) /1/ETH-1-1-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPAN MAAN Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">737be58d-7bde-41a7-9002-2ffb83e5a8ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad8fb63-8d85-4ea3-ba41-7151076cd0ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAMALGAJI_10.123.29.196/5.8==Kamalgazi BTS-A3(CAT2) /1/ETH-1-1-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70188d37-baf2-43dc-b857-8cff90f0c8fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_FIEM-ROU-A1_10.123.138.228/2.6-CTD_HNV_KAMALGAJI_10.123.29.196/6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUTURE INSTITUTE OF ENGG AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1f90f744-3885-4ca6-9fe4-738f8fc819c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8ad723eb-6da3-4475-8ffb-3afde808fe07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHAMAYATALA-II 2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHAMAYATALA II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z2GJDPIPJDP2485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a93b0eee-0939-4fcc-acec-355df1c810dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6cb1a150-a017-4e2f-9018-f0482be79bdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30b95289-bc6c-4584-a51d-800e3b6356c9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHAMAYATALA-II 3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z3GJDPIPJDP5485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cda7ba08-7f34-4f8d-8ee8-66cedadeeab3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35b215a3-75cc-4a95-859f-85a5414fcced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNV CSR_MEDHA INTRANET_138.193/4.9_25.189/2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNV PCM 1ST FLOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000504431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2749dbd2-2aa2-4258-9ee3-c3d2bce17d45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45f1a024-b36f-465a-8896-125399380cb6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GOBINDAPUR_10.123.138.195/3.1-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBINDAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">066dc680-98c6-4b7a-82b6-06a47be03c82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/3.2-CTD_HNV_BARUI PUR RAIL CROSSING BTS_10.123.138.216/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR RAIL CROSSING BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7cb54fc6-2864-4c9e-8680-e8c2282e17aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25fefca1-ae6f-4e01-8051-087a94373b9d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHODAR BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHODAR_BAZAR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37ace94a-52d7-4cc0-85ab-10b1abe2f7bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ce5929c-3cb3-401f-abe5-7bd9e73db778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI_10.123.138.193_GNE/6.3==Harinavi -B3(CAT2) /1/ETH-1-1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72aaabd1-57b2-49b7-8734-b22b51443ed8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GOBINDAPUR_10.123.138.195/4.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff705a3-7dff-41b4-8764-28b1c34b26f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_JDP_AWANTIPUR_10.123.138.200/3.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285294ec-5ea4-4535-8f99-d744acb6a1eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI EXCH A1_10.123.138.225/2.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25459ef3-6fbb-49ec-aeac-7cb8de958b46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI EXCH NODE-2_10.123.138.245/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b9c7aac2-67d1-480b-ae3f-e4f5eabd4697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBSEDCL-PADMAPUKUR_138.193/3.3_138.65/3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADMAPUKUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000209540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8091468c-7979-46e7-8ff7-31468b94f5f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b23799ac-04a7-4a2c-a6ce-2676971cbc2f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IG-BORDER-4MBPS_CIR-25.138/3.3_HARINAVI-138.193/3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000354024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a6102be-1442-482e-8779-78ff7d54f636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR_POLYTECH_138.129/3.3_138.129/3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR POLYTECHNIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000540738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaaf44d4-c7d0-457d-aeb3-6c9c1e002994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5538422e-4955-4ae3-8e58-7e4e801aaeac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBSWAN POP BLOCK HEAD QUARTER BLOCK OFFICE SONARPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonarpur Bhq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000293191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499ed28b-7dff-4af4-a059-3e1169065627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2dba624-533d-48c2-ac79-6df541ab8054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI_RAJPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI RAJPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000122720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ed39a4f5-8b3a-4bc9-afc2-e56056cf4754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2509ca5a-bb63-42ab-a9e6-10b21cdbf344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR_BLRO_138.193/3.3_138.65/3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000293414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8411e68d-3a48-4f3a-8fed-015d228cc59b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI_SUBHASGRAM_138.193/3.3_25.65/5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI SUBHASGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000123043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314bff74-a98e-4d5f-90ad-d69373c019ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53f28861-be94-4f78-a6da-abd2afd6e7fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPU_ADSR_138.193_138.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000293306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4324a99b-04a0-4f3b-9c36-87b077005b93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/3.6-CTD_HNV_RAJPUR SARKARPARA_10.123.138.215/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR SARKAR PARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61b21eeb-02d0-4660-b49e-72baff24942b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI EXCH A1_10.123.138.225/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3742b931-11f4-48d9-a0a4-9d8a286c3158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HNV Tx A1_10.123.138.233/1.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8f396188-2134-4ac1-9473-d9077a04e2a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/3.9-CTD_HNV_HARINAVI EXCH_10.123.138.229/1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e2225287-b468-4729-9a04-e97a57252421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/3.11-CTD_HNV_HARINAVI EXCH NODE 7_10.123.138.253/1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8863f470-b8bb-4ecd-913d-5be3da939d8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/4.1-CTD_HNV_KAMALGAJI_10.123.29.196/3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb93ae6d-d10c-45ca-ab18-7b68613c8790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/4.2-CTD_HNV_KODALIA BTS_10.123.138.204/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KODALIA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76563bda-cbd4-47c9-b81b-bbf8021d6329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e56848ea-3c3a-4925-b20c-bc5ca60bec5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/4.3-CTD_HNV_SHALIMAR CHEMICAL_10.123.138.214/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHALIMAR CHEMICAL BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf787ef1-10ca-4f22-a1f1-e51ca3bd3fa0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1ba7120-8b78-4897-b040-faa5e5620c96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_DAKSHIN CHOWHATI_10.123.138.209/1.5-CTD_HNV_HARINAVI_10.123.138.193_GNE/4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALANCHA_CHANDPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39497abc-c45b-4eef-99ae-b9792eb79fc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93d9b329-2382-443a-949d-ba8225db474c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/4.7-CTD_HNV_HARINAVI EXCH NODE-6_10.123.138.244/1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a55a2257-f3a9-4ad9-9901-daf63a8f34ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI EXCH NODE-6_10.123.138.244/2.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba7ce1f6-49fe-4834-b249-4262e54bb3b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI EXCH NODE 7_10.123.138.253/2.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44d8ce8b-be5d-4521-a979-a6b10c57dd9f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/4.11-CTD_HNV_HARINAVI EXCH NODE-2_10.123.138.245/2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31cd7d67-b9b2-4ca7-a600-d00d6f87c807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HARINAVI_10.123.138.193_GNE/5.1-CTD_HNV_ BRAHMAPUR_10.123.138.203/3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAHMAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a679bacf-dfef-4916-a751-e73e1bcfbe7e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c3d8bf8-006a-4230-8efe-c5343b7ac9c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HNV TX A1_10.123.138.217/1.5-CTD_HNV_HARINAVI_10.123.138.193_GNE/5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a8d9357f-ad55-42c3-8758-5ec087dcda53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SONARPUR_10.123.138.199/3.3-CTD_HNV_HARINAVI_10.123.138.193_GNE/5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f87cd2eb-facf-4b5c-909a-5f702bb0ce9d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI_10.123.138.193_GNE/5.7==Harinavi -B3(CAT2) /1/ETH-1-1-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c969cd2-f4e2-47e5-8a13-9f58b69256d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI_10.123.138.193_GNE/5.8==Harinavi -B3(CAT2) /1/ETH-1-1-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">017ffc52-21bb-4e00-ab8b-195a104daab9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI_10.123.138.193_GNE/5.9==Harinavi -B3(CAT2) /1/ETH-1-1-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddea7279-bfa0-4887-a6db-352f75e927b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI_10.123.138.193_GNE/5.10==Harinavi -B3(CAT2) /1/ETH-1-1-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a531a258-5d75-49a3-aec6-b68a1e95f62a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_AP NAGAR_10.123.138.198/4.1-CTD_HNV_HARINAVI_10.123.138.193_GNE/6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP NAGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc9f8bc4-5379-4c91-8f48-a46bd11710f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARINAVI_10.123.138.193_GNE/6.2==Harinavi -B3(CAT2) /1/ETH-1-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4fb936ab-5a52-4171-8c1d-27dfba6c0d98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GOBINDAPUR_10.123.138.195/3.2-CTD_HNV_JOGIBARTALA BTS_10.123.138.208/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGIBARTALA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9d97e1e8-6942-4fba-8922-544a168d0db1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dea33be8-45f3-4823-9366-654f63ba67f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GOBINDAPUR_10.123.138.195/4.1-CTD_BHL_JULPIA_10.123.136.3/4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behala Transmission Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">069dae02-dd0d-4f98-aac9-4e71d19cc964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9ff6e66-4926-4fda-a275-9671f294e925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e6682a2-2bf4-4db1-84b7-bf453707e8a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000293230_WBSWAN_SDO(CIVIL)BRP_3702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR SDO OFFICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2a668f8-520d-44f2-a12e-61748fddea03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d21ea89a-7681-4e53-b10c-5da3c82d31fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000120482_SBI_BARUIPUR_138.196/3.5_138.65/3.8_3865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI BARUIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57c1a846-c1f0-43db-a27e-40f54387105a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a72f165a-4e0f-44a3-934e-f68940e00471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000122714_SBI_BARUIPUR_BZR_138.196/3.5_25.65/5.5_4030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI BARUIPUR BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5eaae8e4-a441-4e23-955e-046cbacb3e63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15db953c-c9fa-4044-b1bc-1c0a0d59645b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000537505_CSR_BARUIPUR_138.199/3.5_141.173/1.4_413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0796b1a9-576f-4b0c-a3f1-17cae80137c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur(Nirala Road)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur (Nirala Road) BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1472cfbe-9558-43fb-a433-c52e16167225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48f0b92e-bd96-4ae6-bc13-6a94ecc754c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MADARHAT ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">597f0a21-84b5-4245-be59-19a7f8aa2830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc89c2b7-7450-415a-b126-8d11edc52d34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a6e02a4a-a552-469b-a554-9cb4c957dfe0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIYALI TOWN I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIYALI TOWN I BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">391dd04c-94bd-4b6d-8c41-51230ae37bd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5be02f7d-d7e7-403c-bf98-535c120b7c05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ec015c9-e787-4ad3-a0d3-6363cd5f89a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR EXNG A1_10.123.138.220/1.3-CTD_HNV_BARUIPUR_10.123.138.196/3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f09c961c-79ae-46eb-bcf3-8970d6ebee35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR DUTTAPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR DUTTAPARA BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4bfbaaa9-11ea-4895-a9c4-02349eda7c63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8f06599e-fe3e-4717-b0ea-4fa6ccdb8ea6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR_10.123.138.196/3.9==Baruipur -B3(CAT2) /1/ETH-1-1-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345b853a-1d3b-4f5a-b41c-1df6d09d8e74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR NODE 4_10.123.138.241/1.4-CTD_HNV_BARUIPUR_10.123.138.196/3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">992a9997-7404-45ba-aad5-1f43c6643bf5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SITAKUNDU_10.123.138.197/3.1-CTD_HNV_BARUIPUR_10.123.138.196/4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITAKUNDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f9be95a-3bce-456e-89f4-bee5d8f296ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69b3cd60-ce89-43b4-ac1f-4671fc02d081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR_10.123.138.196/4.2-CTD_HNV_BARUIPUR BAZAR BTS NODE 1_10.123.138.242/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e1bac51-dc6c-4369-9467-d7a9b3a1fdc0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR_10.123.138.196/4.3-CTD_HNV_PIYALI TOWN II BTS (A1)_10.123.138.247/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIYALI TOWN II BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631e0ac8-2096-46d0-b03f-29a0df673fa6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5ff68e3d-96c7-41b7-a27e-53823346640a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR_10.123.138.196/4.5-CTD_HNV_BARUIPUR III BTS_10.123.138.211/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR III BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71e4a9f2-97fe-4e24-94df-ef5b329044cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">876847d1-9e49-4c81-9716-c3b188826ce1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR_10.123.138.196/4.9-CTD_HNV_BARUIPUR NODE 4_10.123.138.241/2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55a43ec5-8db4-4762-8bd2-d6174e9c02d5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR_10.123.138.196/4.10==Baruipur -B3(CAT2) /1/ETH-1-1-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c9005fcd-ea6f-4a2d-9369-f4457e87fa66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR_10.123.138.196/4.11==Baruipur -B3(CAT2) /1/ETH-1-1-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8a290a6f-3d8a-4070-b41a-0b7d33051a67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_AP NAGAR_10.123.138.198/3.1-CTD_HNV_SITAKUNDU_10.123.138.197/4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 GE(O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_AP NAGAR_10.123.138.198/3.7-CTD_HNV_AP NAGAR_10.123.138.222/1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1GE(E)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SONARPORE GHASIARA_10.123.138.218/2.5-CTD_HNV_AP NAGAR_10.123.138.198/3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE(O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_AP NAGAR_10.123.138.198/3.4-CTD_HNV_SONARPUR_10.123.138.199/4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000100168_BOB-SONARPUR_APNGR_138.198/3.5_25.65/5.5-4068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000184559_ONGC-SONARPUR_APNGR_138.198/3.5_141.69/4.4_4050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE/GE(E)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SREEKHANDA KALVART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SONARPUR EX_10.123.138.221/2.5-CTD_HNV_AP NAGAR_10.123.138.222/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARENDRA PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARENDRA PARA BTS_10.123.138.249/1.5-CTD_HNV_SONARPUR-ROU-A1_10.123.138.227/1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARENDRA_PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_RAJPUR SARKARPARA_10.123.138.215/1.5-CTD_HNV_BARENDRA PARA BTS_10.123.138.249/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-KALYANPUR CHANDIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-UTTAR KALYANPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR STATION BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-JOGIBARTALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-MAHINAGAR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-MALLICKPUR III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR RAIL CROSSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-KALYANPUR (DAKSHIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Sasan_Baruipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Baruipur Kalyanpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Sitakundu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Baruipur Phultala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-PIYALI TOWN-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-MANDALPADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR EXCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR (NIRALA ROAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR DUTTAPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR MADARHAT ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-KHODAR BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Baruipur Madarhat II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARUIPUR MADARHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALYANPUR (DAKSHIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR EXNG A1_10.123.138.220/2.4==Baruipur -B3(CAT2) /1/ETH-1-1-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR BAZAR BTS NODE 2_10.123.138.243/1.3-CTD_HNV_BARUIPUR BAZAR BTS NODE 1_10.123.138.242/1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTTAR KALYANPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALYANPUR CHANDIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR STATION BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000377962_BARUIPUR_COURT_138.243/1.5_138.1/3.7_3722_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000293485_BRP_ADSR_138.243/1.6_138.65/3.8_3822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR BDO NODE-2_10.123.138.224/1.4-CTD_HNV_BARUIPUR BDO OFFICE_10.123.138.212/1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000293301_WBSWAN_BARUIPUR_PHULTALA-138.212/1.3_138.1/3.7_3701_SHIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR NODE 4_10.123.138.241/1.5-CTD_HNV_BARUIPUR BDO OFFICE_10.123.138.212/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000470011-DIR-CORR-HOME_29.229/1.3_KGT-138.65/3.8_3855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SPICES BOARD CHAKARBER BARUIPUR_10.123.136.34/2.5-CTD_BHL_BARUIPUR-CENTRAL-CORRECTIONAL-HOME_10.123.136.22/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000282563-REG-GEN-HIGH-COURT_29.229/1.6_KGT-138.65/3.8_3862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR EXNG A1_10.123.138.220/1.5-CTD_HNV_BARUI PUR RAIL CROSSING BTS_10.123.138.216/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR EXCH$2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALLICKPUR-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GOBINDAPUR BTS_10.123.138.206/2.5-CTD_HNV_BARUIPUR II BTS_10.123.138.207/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHINAGAR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_JOGIBARTALA BTS_10.123.138.208/1.5-CTD_HNV_BARUIPUR II BTS_10.123.138.207/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR KALYANPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Kalyanpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SASAN BARUIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasan_Baruipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR NODE 3_10.123.138.240/1.4-CTD_HNV_BARUIPUR NODE 4_10.123.138.241/1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR EXCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MADARHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur_Madarhat-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Madarhat II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR (NIRALA ROAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BARUIPUR NODE 4_10.123.138.241/2.6-CTD_HNV_KALYANPUR RSU_10.123.138.232/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR RAIL CROSSING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-PRANA BORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Dakshin Bonhooghly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Azadgarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BRAHMAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BRAHMAPUR PLACE ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-NSC BOSE ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BORAL II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BORAL NATUNHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL MAJHERPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BONHOOGHLY II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SUNNY SEASON ROU A1 NODE 2_10.123.29.224/2.5-CTD_HNV_BORAL ROU A1_10.123.29.225/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_HNV Tx A1_10.123.138.233/1.5-CTD_HNV_BORAL ROU A1_10.123.29.225/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_BORAL ROU A1_10.123.29.225/2.6-CTD_HNV_PRAN BORAL BTS_10.123.29.209/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_RSA_RUSSA B2-01_10.123.138.2/5.1-CTD_HNV_ BRAHMAPUR_10.123.138.203/4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONHOOGHLY II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAHMAPUR PLACE ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_CHOWHATI POLEHAT BTS_10.123.138.250/1.5-CTD_HNV_JAGADAL 2 BTS_10.123.138.252/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_CHOWHATI POLEHAT BTS_10.123.138.250/2.6-CTD_HNV_SARMASTAPUR_10.123.138.210/2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_DAKSHIN CHOWHATI_10.123.138.209/2.5-CTD_HNV_SARMASTAPUR_10.123.138.210/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000474262_DRDO_BARUIPUR_29.246_25.65/5.5_vlan-4008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000559335_DRDO-HQ_136.35/2.4_138.1/38.1/6.7_4006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_BHL_JULPIA_10.123.136.3/3.4-CTD_HNV_DRDO BARUIPUR_10.123.136.35/1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_BHL_BHL-TX-NODE-2_10.123.136.39/1.6-CTD_HNV_DRDO BARUIPUR_10.123.136.35/1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SPICES BOARD CHAKARBER BARUIPUR_10.123.136.34/1.5-CTD_HNV_DRDO BARUIPUR_10.123.136.35/2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_FARTABAD ROU_10.123.138.47/1.5-CTD_HNV_HHC ROU_10.123.138.46/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHAMAYAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahamayapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_JDP_BAISHNAVGHATA ROU A1_10.123.138.23/1.5-CTD_HNV_FARTABAD ROU_10.123.138.47/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_SONARPUR-ROU-A1_10.123.138.227/1.5-CTD_HNV_FIEM-ROU-A1_10.123.138.228/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANGAJORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GANGAJOARA BTS_10.123.138.248/1.5-CTD_HNV_SONARPUR-ROU-A1_10.123.138.227/2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR BADAMTALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR KURIGACHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Gobindapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOVINDAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTD_HNV_GOBINDAPUR BTS_10.123.138.206/1.5-CTD_HNV_MAHINAGAR BTS_10.123.138.205/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-MAHINAGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-KODALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-GOVINDAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-South Gobindapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BADE HOOGHLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SARMASTAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-CHOWHATI POLEHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-MALANCHA_CHANDPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-RAMCHANDRAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-GARIA MAIN ROAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-JAGATDAL-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SHALIMAR CHEMICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Narendrapur BSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-NARENDRAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Narendrapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-RAJPUR SARKAR PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-BARENDRA PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-NOTUN PALLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SUBHAS GRAM BANK PLOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-HARINAVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SUBHASHGRAM PETUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SONARPUR SOUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-NARENDRAPUR-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-MALLICKPUR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SUBHASGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-MOLLIKPUR SITALA MANDIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SUBHASHGRAM KODALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SUBHASGRAM PANCHGHARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-Ghoshpara Darir Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTS 4G-SUBHASHGRAM RAILGATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1041,39 +1505,40 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -1081,91 +1546,180 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF8F9FA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -1173,354 +1727,210 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A347" activeCellId="0" sqref="A347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="15" width="30" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1541,11 +1951,11 @@
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45997.41655805556</v>
+      <c r="K2" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>20</v>
@@ -1557,7 +1967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1584,11 +1994,11 @@
       <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L3" s="6">
-        <v>45997.41655805556</v>
+      <c r="K3" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>29</v>
@@ -1600,7 +2010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1621,11 +2031,11 @@
       <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L4" s="3">
-        <v>45997.41655805556</v>
+      <c r="K4" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>34</v>
@@ -1637,7 +2047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1660,11 +2070,11 @@
       <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L5" s="6">
-        <v>45997.41655805556</v>
+      <c r="K5" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>39</v>
@@ -1676,7 +2086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1699,11 +2109,11 @@
       <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L6" s="3">
-        <v>45997.41655805556</v>
+      <c r="K6" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>45</v>
@@ -1715,7 +2125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1738,11 +2148,11 @@
       <c r="J7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L7" s="6">
-        <v>45997.41655805556</v>
+      <c r="K7" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>49</v>
@@ -1754,7 +2164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1781,11 +2191,11 @@
       <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L8" s="3">
-        <v>45997.41655805556</v>
+      <c r="K8" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>56</v>
@@ -1797,7 +2207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1824,11 +2234,11 @@
       <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L9" s="6">
-        <v>45997.41655805556</v>
+      <c r="K9" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>63</v>
@@ -1840,7 +2250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1863,11 +2273,11 @@
       <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L10" s="3">
-        <v>45997.41655805556</v>
+      <c r="K10" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>67</v>
@@ -1879,7 +2289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1902,11 +2312,11 @@
       <c r="J11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L11" s="6">
-        <v>45997.41655805556</v>
+      <c r="K11" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>70</v>
@@ -1918,7 +2328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -1941,11 +2351,11 @@
       <c r="J12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L12" s="3">
-        <v>45997.41655805556</v>
+      <c r="K12" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>74</v>
@@ -1957,7 +2367,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
@@ -1980,11 +2390,11 @@
       <c r="J13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L13" s="6">
-        <v>45997.41655805556</v>
+      <c r="K13" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>78</v>
@@ -1996,7 +2406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -2023,11 +2433,11 @@
       <c r="J14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L14" s="3">
-        <v>45997.41655805556</v>
+      <c r="K14" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>84</v>
@@ -2039,7 +2449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>86</v>
       </c>
@@ -2066,11 +2476,11 @@
       <c r="J15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L15" s="6">
-        <v>45997.41655805556</v>
+      <c r="K15" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>90</v>
@@ -2082,7 +2492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>92</v>
       </c>
@@ -2105,11 +2515,11 @@
       <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L16" s="3">
-        <v>45997.41655805556</v>
+      <c r="K16" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>94</v>
@@ -2121,7 +2531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
@@ -2144,11 +2554,11 @@
       <c r="J17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L17" s="6">
-        <v>45997.41655805556</v>
+      <c r="K17" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>98</v>
@@ -2160,7 +2570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -2183,11 +2593,11 @@
       <c r="J18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L18" s="3">
-        <v>45997.41655805556</v>
+      <c r="K18" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>102</v>
@@ -2199,7 +2609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>104</v>
       </c>
@@ -2222,11 +2632,11 @@
       <c r="J19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L19" s="6">
-        <v>45997.41655805556</v>
+      <c r="K19" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>106</v>
@@ -2238,7 +2648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -2261,11 +2671,11 @@
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L20" s="3">
-        <v>45997.41655805556</v>
+      <c r="K20" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>110</v>
@@ -2277,7 +2687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>112</v>
       </c>
@@ -2300,11 +2710,11 @@
       <c r="J21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L21" s="6">
-        <v>45997.41655805556</v>
+      <c r="K21" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>114</v>
@@ -2316,7 +2726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
@@ -2339,11 +2749,11 @@
       <c r="J22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L22" s="3">
-        <v>45997.41655805556</v>
+      <c r="K22" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>118</v>
@@ -2355,7 +2765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>120</v>
       </c>
@@ -2378,11 +2788,11 @@
       <c r="J23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L23" s="6">
-        <v>45997.41655805556</v>
+      <c r="K23" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>121</v>
@@ -2394,7 +2804,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
@@ -2417,11 +2827,11 @@
       <c r="J24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L24" s="3">
-        <v>45997.41655805556</v>
+      <c r="K24" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>124</v>
@@ -2433,7 +2843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>126</v>
       </c>
@@ -2460,11 +2870,11 @@
       <c r="J25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L25" s="6">
-        <v>45997.41655805556</v>
+      <c r="K25" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>131</v>
@@ -2476,7 +2886,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>134</v>
       </c>
@@ -2503,11 +2913,11 @@
       <c r="J26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L26" s="3">
-        <v>45997.41655805556</v>
+      <c r="K26" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>138</v>
@@ -2519,7 +2929,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>140</v>
       </c>
@@ -2546,11 +2956,11 @@
       <c r="J27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L27" s="6">
-        <v>45997.41655805556</v>
+      <c r="K27" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>144</v>
@@ -2562,7 +2972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>146</v>
       </c>
@@ -2585,11 +2995,11 @@
       <c r="J28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L28" s="3">
-        <v>45997.41655805556</v>
+      <c r="K28" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>148</v>
@@ -2601,7 +3011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>150</v>
       </c>
@@ -2624,11 +3034,11 @@
       <c r="J29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L29" s="6">
-        <v>45997.41655805556</v>
+      <c r="K29" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>152</v>
@@ -2640,7 +3050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>154</v>
       </c>
@@ -2663,10 +3073,10 @@
       <c r="J30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="K30" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L30" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -2679,7 +3089,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>158</v>
       </c>
@@ -2702,11 +3112,11 @@
       <c r="J31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L31" s="6">
-        <v>45997.41655805556</v>
+      <c r="K31" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>159</v>
@@ -2718,7 +3128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>160</v>
       </c>
@@ -2741,11 +3151,11 @@
       <c r="J32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L32" s="3">
-        <v>45997.41655805556</v>
+      <c r="K32" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>161</v>
@@ -2757,7 +3167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>162</v>
       </c>
@@ -2780,11 +3190,11 @@
       <c r="J33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L33" s="6">
-        <v>45997.41655805556</v>
+      <c r="K33" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>163</v>
@@ -2796,7 +3206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>164</v>
       </c>
@@ -2819,11 +3229,11 @@
       <c r="J34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L34" s="3">
-        <v>45997.41655805556</v>
+      <c r="K34" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>165</v>
@@ -2835,7 +3245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>166</v>
       </c>
@@ -2858,11 +3268,11 @@
       <c r="J35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L35" s="6">
-        <v>45997.41655805556</v>
+      <c r="K35" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>167</v>
@@ -2874,7 +3284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -2901,11 +3311,11 @@
       <c r="J36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L36" s="3">
-        <v>45997.41655805556</v>
+      <c r="K36" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>172</v>
@@ -2917,7 +3327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>174</v>
       </c>
@@ -2944,11 +3354,11 @@
       <c r="J37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L37" s="6">
-        <v>45997.41655805556</v>
+      <c r="K37" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>177</v>
@@ -2960,7 +3370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>178</v>
       </c>
@@ -2987,11 +3397,11 @@
       <c r="J38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L38" s="3">
-        <v>45997.41655805556</v>
+      <c r="K38" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>182</v>
@@ -3003,7 +3413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>184</v>
       </c>
@@ -3030,11 +3440,11 @@
       <c r="J39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K39" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L39" s="6">
-        <v>45997.41655805556</v>
+      <c r="K39" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L39" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>188</v>
@@ -3046,7 +3456,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>190</v>
       </c>
@@ -3073,11 +3483,11 @@
       <c r="J40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L40" s="3">
-        <v>45997.41655805556</v>
+      <c r="K40" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>194</v>
@@ -3089,7 +3499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>196</v>
       </c>
@@ -3116,11 +3526,11 @@
       <c r="J41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L41" s="6">
-        <v>45997.41655805556</v>
+      <c r="K41" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L41" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>199</v>
@@ -3132,7 +3542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>200</v>
       </c>
@@ -3159,11 +3569,11 @@
       <c r="J42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K42" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L42" s="3">
-        <v>45997.41655805556</v>
+      <c r="K42" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>204</v>
@@ -3175,7 +3585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>206</v>
       </c>
@@ -3202,11 +3612,11 @@
       <c r="J43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L43" s="6">
-        <v>45997.41655805556</v>
+      <c r="K43" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L43" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>209</v>
@@ -3218,7 +3628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>210</v>
       </c>
@@ -3241,11 +3651,11 @@
       <c r="J44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L44" s="3">
-        <v>45997.41655805556</v>
+      <c r="K44" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>212</v>
@@ -3257,7 +3667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>214</v>
       </c>
@@ -3280,11 +3690,11 @@
       <c r="J45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L45" s="6">
-        <v>45997.41655805556</v>
+      <c r="K45" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L45" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>215</v>
@@ -3296,7 +3706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>216</v>
       </c>
@@ -3319,11 +3729,11 @@
       <c r="J46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L46" s="3">
-        <v>45997.41655805556</v>
+      <c r="K46" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>217</v>
@@ -3335,7 +3745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>218</v>
       </c>
@@ -3358,11 +3768,11 @@
       <c r="J47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L47" s="6">
-        <v>45997.41655805556</v>
+      <c r="K47" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L47" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>219</v>
@@ -3374,7 +3784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>220</v>
       </c>
@@ -3397,11 +3807,11 @@
       <c r="J48" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L48" s="3">
-        <v>45997.41655805556</v>
+      <c r="K48" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>221</v>
@@ -3413,7 +3823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>222</v>
       </c>
@@ -3436,11 +3846,11 @@
       <c r="J49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L49" s="6">
-        <v>45997.41655805556</v>
+      <c r="K49" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L49" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>223</v>
@@ -3452,7 +3862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -3475,11 +3885,11 @@
       <c r="J50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L50" s="3">
-        <v>45997.41655805556</v>
+      <c r="K50" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>226</v>
@@ -3491,7 +3901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>228</v>
       </c>
@@ -3514,11 +3924,11 @@
       <c r="J51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L51" s="6">
-        <v>45997.41655805556</v>
+      <c r="K51" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L51" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>230</v>
@@ -3530,7 +3940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>232</v>
       </c>
@@ -3553,11 +3963,11 @@
       <c r="J52" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L52" s="3">
-        <v>45997.41655805556</v>
+      <c r="K52" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>234</v>
@@ -3569,7 +3979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>236</v>
       </c>
@@ -3592,11 +4002,11 @@
       <c r="J53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L53" s="6">
-        <v>45997.41655805556</v>
+      <c r="K53" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L53" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>237</v>
@@ -3608,7 +4018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>238</v>
       </c>
@@ -3631,11 +4041,11 @@
       <c r="J54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L54" s="3">
-        <v>45997.41655805556</v>
+      <c r="K54" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L54" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>239</v>
@@ -3647,7 +4057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>240</v>
       </c>
@@ -3670,11 +4080,11 @@
       <c r="J55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L55" s="6">
-        <v>45997.41655805556</v>
+      <c r="K55" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L55" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>241</v>
@@ -3686,7 +4096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>242</v>
       </c>
@@ -3709,11 +4119,11 @@
       <c r="J56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L56" s="3">
-        <v>45997.41655805556</v>
+      <c r="K56" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L56" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>243</v>
@@ -3725,7 +4135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>244</v>
       </c>
@@ -3748,11 +4158,11 @@
       <c r="J57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L57" s="6">
-        <v>45997.41655805556</v>
+      <c r="K57" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L57" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>246</v>
@@ -3764,7 +4174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>248</v>
       </c>
@@ -3787,11 +4197,11 @@
       <c r="J58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L58" s="3">
-        <v>45997.41655805556</v>
+      <c r="K58" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L58" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>249</v>
@@ -3803,7 +4213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>250</v>
       </c>
@@ -3826,11 +4236,11 @@
       <c r="J59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L59" s="6">
-        <v>45997.41655805556</v>
+      <c r="K59" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L59" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>251</v>
@@ -3842,7 +4252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>252</v>
       </c>
@@ -3865,11 +4275,11 @@
       <c r="J60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L60" s="3">
-        <v>45997.41655805556</v>
+      <c r="K60" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L60" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>253</v>
@@ -3881,7 +4291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>254</v>
       </c>
@@ -3904,11 +4314,11 @@
       <c r="J61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L61" s="6">
-        <v>45997.41655805556</v>
+      <c r="K61" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L61" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M61" s="5" t="s">
         <v>255</v>
@@ -3920,7 +4330,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>256</v>
       </c>
@@ -3943,11 +4353,11 @@
       <c r="J62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L62" s="3">
-        <v>45997.41655805556</v>
+      <c r="K62" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L62" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>257</v>
@@ -3959,7 +4369,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>258</v>
       </c>
@@ -3982,11 +4392,11 @@
       <c r="J63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L63" s="6">
-        <v>45997.41655805556</v>
+      <c r="K63" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L63" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>259</v>
@@ -3998,7 +4408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>260</v>
       </c>
@@ -4021,11 +4431,11 @@
       <c r="J64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L64" s="3">
-        <v>45997.41655805556</v>
+      <c r="K64" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L64" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>262</v>
@@ -4037,7 +4447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>264</v>
       </c>
@@ -4060,11 +4470,11 @@
       <c r="J65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L65" s="6">
-        <v>45997.41655805556</v>
+      <c r="K65" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L65" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>265</v>
@@ -4076,7 +4486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>266</v>
       </c>
@@ -4099,11 +4509,11 @@
       <c r="J66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L66" s="3">
-        <v>45997.41655805556</v>
+      <c r="K66" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L66" s="3" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>268</v>
@@ -4115,7 +4525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>270</v>
       </c>
@@ -4138,11 +4548,11 @@
       <c r="J67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L67" s="6">
-        <v>45997.41655805556</v>
+      <c r="K67" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L67" s="6" t="n">
+        <v>45997.4165580556</v>
       </c>
       <c r="M67" s="5" t="s">
         <v>273</v>
@@ -4154,7 +4564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>42</v>
       </c>
@@ -4177,10 +4587,10 @@
       <c r="J68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K68" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L68" s="3">
+      <c r="K68" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L68" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M68" s="2" t="s">
@@ -4193,7 +4603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>276</v>
       </c>
@@ -4216,10 +4626,10 @@
       <c r="J69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L69" s="6">
+      <c r="K69" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L69" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M69" s="5" t="s">
@@ -4232,7 +4642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>280</v>
       </c>
@@ -4255,10 +4665,10 @@
       <c r="J70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L70" s="3">
+      <c r="K70" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L70" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M70" s="2" t="s">
@@ -4271,7 +4681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>284</v>
       </c>
@@ -4294,10 +4704,10 @@
       <c r="J71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K71" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L71" s="6">
+      <c r="K71" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L71" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M71" s="5" t="s">
@@ -4310,7 +4720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>288</v>
       </c>
@@ -4333,10 +4743,10 @@
       <c r="J72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K72" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="K72" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L72" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M72" s="2" t="s">
@@ -4349,7 +4759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>290</v>
       </c>
@@ -4372,10 +4782,10 @@
       <c r="J73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L73" s="6">
+      <c r="K73" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L73" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M73" s="5" t="s">
@@ -4388,7 +4798,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
@@ -4411,10 +4821,10 @@
       <c r="J74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K74" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L74" s="3">
+      <c r="K74" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L74" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M74" s="2" t="s">
@@ -4427,7 +4837,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>290</v>
       </c>
@@ -4450,10 +4860,10 @@
       <c r="J75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L75" s="6">
+      <c r="K75" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L75" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M75" s="5" t="s">
@@ -4466,7 +4876,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>298</v>
       </c>
@@ -4489,10 +4899,10 @@
       <c r="J76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K76" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="K76" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L76" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M76" s="2" t="s">
@@ -4505,7 +4915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>298</v>
       </c>
@@ -4528,10 +4938,10 @@
       <c r="J77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L77" s="6">
+      <c r="K77" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L77" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M77" s="5" t="s">
@@ -4544,7 +4954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>303</v>
       </c>
@@ -4567,10 +4977,10 @@
       <c r="J78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L78" s="3">
+      <c r="K78" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L78" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M78" s="2" t="s">
@@ -4583,7 +4993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>305</v>
       </c>
@@ -4606,10 +5016,10 @@
       <c r="J79" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L79" s="6">
+      <c r="K79" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L79" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M79" s="5" t="s">
@@ -4622,7 +5032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>309</v>
       </c>
@@ -4645,10 +5055,10 @@
       <c r="J80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K80" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L80" s="3">
+      <c r="K80" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L80" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M80" s="2" t="s">
@@ -4661,7 +5071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>311</v>
       </c>
@@ -4684,10 +5094,10 @@
       <c r="J81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L81" s="6">
+      <c r="K81" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L81" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M81" s="5" t="s">
@@ -4700,7 +5110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>313</v>
       </c>
@@ -4723,10 +5133,10 @@
       <c r="J82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L82" s="3">
+      <c r="K82" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L82" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M82" s="2" t="s">
@@ -4739,7 +5149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>317</v>
       </c>
@@ -4762,10 +5172,10 @@
       <c r="J83" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K83" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L83" s="6">
+      <c r="K83" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L83" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M83" s="5" t="s">
@@ -4778,7 +5188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>319</v>
       </c>
@@ -4801,10 +5211,10 @@
       <c r="J84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K84" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L84" s="3">
+      <c r="K84" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L84" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M84" s="2" t="s">
@@ -4817,7 +5227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>323</v>
       </c>
@@ -4840,10 +5250,10 @@
       <c r="J85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K85" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L85" s="6">
+      <c r="K85" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L85" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M85" s="5" t="s">
@@ -4856,7 +5266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>327</v>
       </c>
@@ -4879,10 +5289,10 @@
       <c r="J86" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K86" s="3">
-        <v>45994</v>
-      </c>
-      <c r="L86" s="3">
+      <c r="K86" s="3" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L86" s="3" t="n">
         <v>45996</v>
       </c>
       <c r="M86" s="2" t="s">
@@ -4895,7 +5305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>329</v>
       </c>
@@ -4918,10 +5328,10 @@
       <c r="J87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K87" s="6">
-        <v>45994</v>
-      </c>
-      <c r="L87" s="6">
+      <c r="K87" s="6" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L87" s="6" t="n">
         <v>45996</v>
       </c>
       <c r="M87" s="5" t="s">
@@ -4934,7 +5344,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" ht="20" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
         <v>331</v>
       </c>
@@ -4957,10 +5367,10 @@
       <c r="J88" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K88" s="9">
-        <v>45994</v>
-      </c>
-      <c r="L88" s="9">
+      <c r="K88" s="9" t="n">
+        <v>45994</v>
+      </c>
+      <c r="L88" s="9" t="n">
         <v>45996</v>
       </c>
       <c r="M88" s="8" t="s">
@@ -4973,8 +5383,2997 @@
         <v>119</v>
       </c>
     </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C311" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C314" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C315" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C317" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C318" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C319" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C320" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C325" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C327" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C330" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C341" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C342" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>